--- a/pdfToExcel/bin/Debug/net6.0-windows/ExportTableToExcel.xlsx
+++ b/pdfToExcel/bin/Debug/net6.0-windows/ExportTableToExcel.xlsx
@@ -210,7 +210,7 @@
     <t>Spire.XLS for .NET</t>
   </si>
   <si>
-    <t>e-iceblue Inc. 2002-2023 All rights reserverd</t>
+    <t>e-iceblue Inc. 2002-2024 All rights reserverd</t>
   </si>
   <si>
     <t>Home page</t>
